--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -540,10 +540,10 @@
         <v>1.945874</v>
       </c>
       <c r="I2">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="J2">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N2">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q2">
-        <v>25.56482710090867</v>
+        <v>46.08539638180956</v>
       </c>
       <c r="R2">
-        <v>230.083443908178</v>
+        <v>414.768567436286</v>
       </c>
       <c r="S2">
-        <v>0.5655121315923076</v>
+        <v>0.6726579366592784</v>
       </c>
       <c r="T2">
-        <v>0.5655121315923076</v>
+        <v>0.6726579366592785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.945874</v>
       </c>
       <c r="I3">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="J3">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P3">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q3">
         <v>7.399457874943557</v>
@@ -632,10 +632,10 @@
         <v>66.59512087449201</v>
       </c>
       <c r="S3">
-        <v>0.1636812632829457</v>
+        <v>0.1080017631902453</v>
       </c>
       <c r="T3">
-        <v>0.1636812632829457</v>
+        <v>0.1080017631902453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.945874</v>
       </c>
       <c r="I4">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="J4">
-        <v>0.7736027733825248</v>
+        <v>0.816276414292558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N4">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O4">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P4">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q4">
-        <v>2.007592799115556</v>
+        <v>2.440185885677555</v>
       </c>
       <c r="R4">
-        <v>18.06833519204</v>
+        <v>21.961672971098</v>
       </c>
       <c r="S4">
-        <v>0.0444093785072715</v>
+        <v>0.03561671444303433</v>
       </c>
       <c r="T4">
-        <v>0.04440937850727149</v>
+        <v>0.03561671444303433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.189822</v>
+        <v>0.1459893333333333</v>
       </c>
       <c r="H5">
-        <v>0.569466</v>
+        <v>0.437968</v>
       </c>
       <c r="I5">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="J5">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N5">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q5">
-        <v>7.481625135978001</v>
+        <v>10.37268028790578</v>
       </c>
       <c r="R5">
-        <v>67.334626223802</v>
+        <v>93.35412259115201</v>
       </c>
       <c r="S5">
-        <v>0.1654988614521521</v>
+        <v>0.1513986266339911</v>
       </c>
       <c r="T5">
-        <v>0.1654988614521521</v>
+        <v>0.1513986266339911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.189822</v>
+        <v>0.1459893333333333</v>
       </c>
       <c r="H6">
-        <v>0.569466</v>
+        <v>0.437968</v>
       </c>
       <c r="I6">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="J6">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P6">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q6">
-        <v>2.165474063692</v>
+        <v>1.665434538193778</v>
       </c>
       <c r="R6">
-        <v>19.489266573228</v>
+        <v>14.988910843744</v>
       </c>
       <c r="S6">
-        <v>0.04790182420685304</v>
+        <v>0.02430851957573067</v>
       </c>
       <c r="T6">
-        <v>0.04790182420685304</v>
+        <v>0.02430851957573067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.189822</v>
+        <v>0.1459893333333333</v>
       </c>
       <c r="H7">
-        <v>0.569466</v>
+        <v>0.437968</v>
       </c>
       <c r="I7">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="J7">
-        <v>0.2263972266174752</v>
+        <v>0.183723585707442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N7">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O7">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P7">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q7">
-        <v>0.5875281960400001</v>
+        <v>0.5492253516817777</v>
       </c>
       <c r="R7">
-        <v>5.287753764360001</v>
+        <v>4.943028165136</v>
       </c>
       <c r="S7">
-        <v>0.01299654095847001</v>
+        <v>0.008016439497720232</v>
       </c>
       <c r="T7">
-        <v>0.01299654095847001</v>
+        <v>0.00801643949772023</v>
       </c>
     </row>
   </sheetData>
